--- a/MPReferendumStance.xlsx
+++ b/MPReferendumStance.xlsx
@@ -12,10 +12,7 @@
     <sheet name="Region" sheetId="7" r:id="rId3"/>
     <sheet name="MPs" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MPs!$A$1:$J$651</definedName>
-  </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
@@ -6156,7 +6153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6293,6 +6290,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6595,7 +6608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6638,6 +6651,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6650,7 +6665,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -6679,11 +6694,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -6710,7 +6727,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Tom Harris" refreshedDate="42543.513455324071" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="650">
   <cacheSource type="worksheet">
-    <worksheetSource ref="H1:I651" sheet="MPs"/>
+    <worksheetSource ref="H2:I651" sheet="MPs"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Region" numFmtId="0">
@@ -6748,7 +6765,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Tom Harris" refreshedDate="42543.513456597226" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="650">
   <cacheSource type="worksheet">
-    <worksheetSource ref="F1:I651" sheet="MPs"/>
+    <worksheetSource ref="F2:I651" sheet="MPs"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Gender" numFmtId="0">
@@ -6782,7 +6799,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Tom Harris" refreshedDate="42543.513456828703" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="650">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D1:I651" sheet="MPs"/>
+    <worksheetSource ref="D2:I651" sheet="MPs"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Party" numFmtId="0">
@@ -20838,8 +20855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20859,55 +20876,57 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1567</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1568</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="G1" t="s">
-        <v>1569</v>
+        <v>1752</v>
       </c>
       <c r="H1" t="s">
-        <v>2028</v>
+        <v>2018</v>
       </c>
       <c r="I1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J1" s="1"/>
+        <v>1748</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1820</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>710</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>711</v>
+        <v>1567</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>712</v>
+        <v>1568</v>
       </c>
       <c r="F2" t="s">
         <v>1751</v>
       </c>
       <c r="G2" t="s">
-        <v>687</v>
+        <v>1569</v>
       </c>
       <c r="H2" t="s">
         <v>2028</v>
@@ -20919,28 +20938,28 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1588</v>
+        <v>710</v>
       </c>
       <c r="C3" t="s">
-        <v>910</v>
+        <v>711</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>1589</v>
+        <v>712</v>
       </c>
       <c r="F3" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G3" t="s">
-        <v>1590</v>
+        <v>687</v>
       </c>
       <c r="H3" t="s">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="I3" t="s">
         <v>1754</v>
@@ -20949,25 +20968,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>1602</v>
+        <v>1588</v>
       </c>
       <c r="C4" t="s">
-        <v>1603</v>
+        <v>910</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="F4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G4" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="H4" t="s">
         <v>2023</v>
@@ -20982,22 +21001,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>1602</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>1603</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>1709</v>
+        <v>1604</v>
       </c>
       <c r="F5" t="s">
         <v>1751</v>
       </c>
       <c r="G5" t="s">
-        <v>1710</v>
+        <v>1605</v>
       </c>
       <c r="H5" t="s">
         <v>2023</v>
@@ -21009,89 +21028,90 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>1709</v>
       </c>
       <c r="F6" t="s">
         <v>1751</v>
       </c>
+      <c r="G6" t="s">
+        <v>1710</v>
+      </c>
       <c r="H6" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I6" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1850</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>1000</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>1001</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>1002</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H7" t="s">
-        <v>2025</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1754</v>
+        <v>2022</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1755</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>2016</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>1001</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>465</v>
+        <v>1002</v>
       </c>
       <c r="F8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1755</v>
+        <v>2025</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1754</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1931</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
@@ -21099,114 +21119,113 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>464</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>465</v>
       </c>
       <c r="F9" t="s">
         <v>1751</v>
       </c>
-      <c r="G9" t="s">
-        <v>164</v>
-      </c>
       <c r="H9" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="I9" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1931</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>1135</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>1136</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>1751</v>
       </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
       <c r="H10" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="I10" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1870</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>1135</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>1136</v>
       </c>
       <c r="F11" t="s">
         <v>1751</v>
       </c>
-      <c r="G11" t="s">
-        <v>108</v>
-      </c>
       <c r="H11" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="I11" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1870</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
         <v>1751</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="I12" t="s">
         <v>1754</v>
@@ -21218,25 +21237,25 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>1737</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>1738</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>1739</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>1751</v>
       </c>
       <c r="G13" t="s">
-        <v>1740</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="I13" t="s">
         <v>1754</v>
@@ -21245,25 +21264,28 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>1737</v>
       </c>
       <c r="C14" t="s">
-        <v>988</v>
+        <v>1738</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>989</v>
+        <v>1739</v>
       </c>
       <c r="F14" t="s">
         <v>1751</v>
       </c>
+      <c r="G14" t="s">
+        <v>1740</v>
+      </c>
       <c r="H14" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I14" t="s">
         <v>1754</v>
@@ -21272,28 +21294,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>1415</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>1416</v>
+        <v>988</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>1417</v>
+        <v>989</v>
       </c>
       <c r="F15" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1418</v>
+        <v>1751</v>
       </c>
       <c r="H15" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="I15" t="s">
         <v>1754</v>
@@ -21302,25 +21321,28 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>1415</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>1416</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>1417</v>
       </c>
       <c r="F16" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1418</v>
       </c>
       <c r="H16" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="I16" t="s">
         <v>1754</v>
@@ -21329,28 +21351,25 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>1637</v>
+        <v>326</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>1638</v>
+        <v>327</v>
       </c>
       <c r="F17" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1206</v>
+        <v>1751</v>
       </c>
       <c r="H17" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I17" t="s">
         <v>1754</v>
@@ -21359,28 +21378,28 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>1637</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>1638</v>
       </c>
       <c r="F18" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>1206</v>
       </c>
       <c r="H18" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I18" t="s">
         <v>1754</v>
@@ -21389,25 +21408,28 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>1612</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>586</v>
+        <v>270</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>1613</v>
+        <v>271</v>
       </c>
       <c r="F19" t="s">
-        <v>1750</v>
+        <v>1751</v>
+      </c>
+      <c r="G19" t="s">
+        <v>272</v>
       </c>
       <c r="H19" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I19" t="s">
         <v>1754</v>
@@ -21416,25 +21438,25 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>1447</v>
+        <v>1612</v>
       </c>
       <c r="C20" t="s">
-        <v>1646</v>
+        <v>586</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>1647</v>
+        <v>1613</v>
       </c>
       <c r="F20" t="s">
         <v>1750</v>
       </c>
       <c r="H20" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I20" t="s">
         <v>1754</v>
@@ -21443,28 +21465,25 @@
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>1267</v>
+        <v>1447</v>
       </c>
       <c r="C21" t="s">
-        <v>1268</v>
+        <v>1646</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>1269</v>
+        <v>1647</v>
       </c>
       <c r="F21" t="s">
         <v>1750</v>
       </c>
-      <c r="G21" t="s">
-        <v>1270</v>
-      </c>
       <c r="H21" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I21" t="s">
         <v>1754</v>
@@ -21473,25 +21492,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>1267</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>1268</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>1269</v>
       </c>
       <c r="F22" t="s">
         <v>1750</v>
       </c>
+      <c r="G22" t="s">
+        <v>1270</v>
+      </c>
       <c r="H22" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="I22" t="s">
         <v>1754</v>
@@ -21500,25 +21522,25 @@
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>1432</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
-        <v>1433</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>1434</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H23" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I23" t="s">
         <v>1754</v>
@@ -21530,16 +21552,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>1432</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>1433</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>1434</v>
       </c>
       <c r="F24" t="s">
         <v>1751</v>
@@ -21557,22 +21579,22 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>679</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>680</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>1751</v>
       </c>
       <c r="H25" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="I25" t="s">
         <v>1754</v>
@@ -21587,134 +21609,134 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>469</v>
+        <v>679</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>470</v>
+        <v>680</v>
       </c>
       <c r="F26" t="s">
         <v>1751</v>
       </c>
       <c r="H26" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="I26" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>1807</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>416</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>598</v>
+        <v>469</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>599</v>
+        <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G27" t="s">
-        <v>600</v>
+        <v>1751</v>
       </c>
       <c r="H27" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="I27" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J27" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>598</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>599</v>
       </c>
       <c r="F28" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G28" t="s">
+        <v>600</v>
       </c>
       <c r="H28" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="I28" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>2013</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>1543</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>1544</v>
+        <v>282</v>
       </c>
       <c r="F29" t="s">
         <v>1751</v>
       </c>
       <c r="H29" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="I29" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>1360</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>641</v>
+        <v>1543</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>1578</v>
+        <v>1544</v>
       </c>
       <c r="F30" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H30" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="I30" t="s">
         <v>1754</v>
@@ -21726,25 +21748,22 @@
         <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>777</v>
+        <v>1360</v>
       </c>
       <c r="C31" t="s">
-        <v>778</v>
+        <v>641</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>779</v>
+        <v>1578</v>
       </c>
       <c r="F31" t="s">
         <v>1750</v>
       </c>
-      <c r="G31" t="s">
-        <v>780</v>
-      </c>
       <c r="H31" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I31" t="s">
         <v>1754</v>
@@ -21753,25 +21772,28 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>777</v>
       </c>
       <c r="C32" t="s">
-        <v>386</v>
+        <v>778</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>387</v>
+        <v>779</v>
       </c>
       <c r="F32" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G32" t="s">
+        <v>780</v>
       </c>
       <c r="H32" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="I32" t="s">
         <v>1754</v>
@@ -21780,60 +21802,58 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>909</v>
+        <v>385</v>
       </c>
       <c r="C33" t="s">
-        <v>656</v>
+        <v>386</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>1359</v>
+        <v>387</v>
       </c>
       <c r="F33" t="s">
         <v>1751</v>
       </c>
       <c r="H33" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="I33" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>1887</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>495</v>
+        <v>909</v>
       </c>
       <c r="C34" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>701</v>
+        <v>1359</v>
       </c>
       <c r="F34" t="s">
         <v>1751</v>
       </c>
       <c r="H34" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="I34" t="s">
         <v>1755</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1841</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
@@ -21841,52 +21861,51 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>702</v>
+        <v>495</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>700</v>
       </c>
       <c r="D35" t="s">
-        <v>1775</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>1759</v>
+        <v>701</v>
       </c>
       <c r="F35" t="s">
         <v>1751</v>
       </c>
-      <c r="G35" t="s">
-        <v>1782</v>
-      </c>
       <c r="H35" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="I35" t="s">
         <v>1755</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>1841</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>415</v>
+        <v>702</v>
       </c>
       <c r="C36" t="s">
-        <v>1783</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>1775</v>
       </c>
       <c r="E36" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F36" t="s">
         <v>1751</v>
       </c>
       <c r="G36" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="H36" t="s">
         <v>2030</v>
@@ -21898,46 +21917,49 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>1785</v>
+        <v>415</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>1783</v>
       </c>
       <c r="D37" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
       <c r="E37" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F37" t="s">
         <v>1751</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1784</v>
       </c>
       <c r="H37" t="s">
         <v>2030</v>
       </c>
       <c r="I37" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>1785</v>
       </c>
       <c r="C38" t="s">
-        <v>1787</v>
+        <v>273</v>
       </c>
       <c r="D38" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E38" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F38" t="s">
         <v>1751</v>
@@ -21955,25 +21977,22 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>565</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>1104</v>
+        <v>1787</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>1788</v>
       </c>
       <c r="E39" t="s">
-        <v>1105</v>
+        <v>1762</v>
       </c>
       <c r="F39" t="s">
         <v>1751</v>
       </c>
-      <c r="G39" t="s">
-        <v>1106</v>
-      </c>
       <c r="H39" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I39" t="s">
         <v>1754</v>
@@ -21982,84 +22001,87 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>1165</v>
+        <v>565</v>
       </c>
       <c r="C40" t="s">
-        <v>1166</v>
+        <v>1104</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>1167</v>
+        <v>1105</v>
       </c>
       <c r="F40" t="s">
-        <v>1750</v>
+        <v>1751</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1106</v>
       </c>
       <c r="H40" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="I40" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>1893</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>1722</v>
+        <v>1165</v>
       </c>
       <c r="C41" t="s">
-        <v>1723</v>
+        <v>1166</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>1724</v>
+        <v>1167</v>
       </c>
       <c r="F41" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1725</v>
+        <v>1750</v>
       </c>
       <c r="H41" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="I41" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J41" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1893</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>1097</v>
+        <v>1722</v>
       </c>
       <c r="C42" t="s">
-        <v>1098</v>
+        <v>1723</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>1099</v>
+        <v>1724</v>
       </c>
       <c r="F42" t="s">
-        <v>1750</v>
+        <v>1751</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1725</v>
       </c>
       <c r="H42" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="I42" t="s">
         <v>1754</v>
@@ -22068,92 +22090,87 @@
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>1097</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>1098</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>647</v>
+        <v>1099</v>
       </c>
       <c r="F43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H43" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I43" t="s">
         <v>1754</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>1988</v>
-      </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>1237</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>1238</v>
+        <v>647</v>
       </c>
       <c r="F44" t="s">
         <v>1751</v>
       </c>
       <c r="H44" t="s">
-        <v>2022</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>1937</v>
+        <v>2019</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1754</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1945</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>644</v>
+        <v>1237</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>645</v>
+        <v>1238</v>
       </c>
       <c r="F45" t="s">
         <v>1751</v>
       </c>
-      <c r="G45" t="s">
-        <v>646</v>
-      </c>
       <c r="H45" t="s">
-        <v>2020</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1754</v>
+        <v>2022</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1937</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1967</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -22161,31 +22178,31 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>644</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>315</v>
+        <v>645</v>
       </c>
       <c r="F46" t="s">
         <v>1751</v>
       </c>
       <c r="G46" t="s">
-        <v>316</v>
+        <v>646</v>
       </c>
       <c r="H46" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I46" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2009</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1">
@@ -22193,104 +22210,107 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="F47" t="s">
-        <v>1750</v>
+        <v>1751</v>
+      </c>
+      <c r="G47" t="s">
+        <v>316</v>
       </c>
       <c r="H47" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="I47" t="s">
         <v>1755</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>1012</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>1053</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>1054</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G48" t="s">
-        <v>945</v>
+        <v>1750</v>
       </c>
       <c r="H48" t="s">
         <v>2025</v>
       </c>
       <c r="I48" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J48" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>2015</v>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>1012</v>
       </c>
       <c r="C49" t="s">
-        <v>413</v>
+        <v>1053</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>414</v>
+        <v>1054</v>
       </c>
       <c r="F49" t="s">
         <v>1751</v>
+      </c>
+      <c r="G49" t="s">
+        <v>945</v>
       </c>
       <c r="H49" t="s">
         <v>2025</v>
       </c>
       <c r="I49" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>2010</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="C50" t="s">
-        <v>572</v>
+        <v>413</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>573</v>
+        <v>414</v>
       </c>
       <c r="F50" t="s">
         <v>1751</v>
@@ -22299,28 +22319,30 @@
         <v>2025</v>
       </c>
       <c r="I50" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J50" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>2010</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>1256</v>
+        <v>376</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>572</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>1257</v>
+        <v>573</v>
       </c>
       <c r="F51" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H51" t="s">
         <v>2025</v>
@@ -22332,25 +22354,22 @@
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>495</v>
+        <v>1256</v>
       </c>
       <c r="C52" t="s">
-        <v>496</v>
+        <v>246</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>497</v>
+        <v>1257</v>
       </c>
       <c r="F52" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G52" t="s">
-        <v>498</v>
+        <v>1750</v>
       </c>
       <c r="H52" t="s">
         <v>2025</v>
@@ -22365,19 +22384,22 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>496</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>497</v>
       </c>
       <c r="F53" t="s">
         <v>1751</v>
+      </c>
+      <c r="G53" t="s">
+        <v>498</v>
       </c>
       <c r="H53" t="s">
         <v>2025</v>
@@ -22392,16 +22414,16 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="F54" t="s">
         <v>1751</v>
@@ -22416,25 +22438,22 @@
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>1495</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>1355</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>1496</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1497</v>
+        <v>1751</v>
       </c>
       <c r="H55" t="s">
         <v>2025</v>
@@ -22449,22 +22468,25 @@
         <v>240</v>
       </c>
       <c r="B56" t="s">
-        <v>303</v>
+        <v>1495</v>
       </c>
       <c r="C56" t="s">
-        <v>981</v>
+        <v>1355</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>982</v>
+        <v>1496</v>
       </c>
       <c r="F56" t="s">
         <v>1750</v>
       </c>
+      <c r="G56" t="s">
+        <v>1497</v>
+      </c>
       <c r="H56" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="I56" t="s">
         <v>1754</v>
@@ -22476,25 +22498,22 @@
         <v>240</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s">
-        <v>1570</v>
+        <v>981</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>1571</v>
+        <v>982</v>
       </c>
       <c r="F57" t="s">
         <v>1750</v>
       </c>
-      <c r="G57" t="s">
-        <v>1203</v>
-      </c>
       <c r="H57" t="s">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="I57" t="s">
         <v>1754</v>
@@ -22503,54 +22522,52 @@
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>371</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>1570</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>1571</v>
       </c>
       <c r="F58" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1203</v>
       </c>
       <c r="H58" t="s">
         <v>2021</v>
       </c>
       <c r="I58" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>2014</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>816</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>817</v>
+        <v>154</v>
       </c>
       <c r="F59" t="s">
         <v>1751</v>
-      </c>
-      <c r="G59" t="s">
-        <v>818</v>
       </c>
       <c r="H59" t="s">
         <v>2021</v>
@@ -22559,7 +22576,7 @@
         <v>1755</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1978</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
@@ -22567,55 +22584,57 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>816</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>817</v>
       </c>
       <c r="F60" t="s">
         <v>1751</v>
       </c>
       <c r="G60" t="s">
-        <v>250</v>
+        <v>818</v>
       </c>
       <c r="H60" t="s">
         <v>2021</v>
       </c>
       <c r="I60" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J60" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>551</v>
+        <v>248</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>1245</v>
+        <v>249</v>
       </c>
       <c r="F61" t="s">
         <v>1751</v>
       </c>
       <c r="G61" t="s">
-        <v>1227</v>
+        <v>250</v>
       </c>
       <c r="H61" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="I61" t="s">
         <v>1754</v>
@@ -22627,25 +22646,25 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="C62" t="s">
-        <v>842</v>
+        <v>551</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>843</v>
+        <v>1245</v>
       </c>
       <c r="F62" t="s">
         <v>1751</v>
       </c>
       <c r="G62" t="s">
-        <v>844</v>
+        <v>1227</v>
       </c>
       <c r="H62" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I62" t="s">
         <v>1754</v>
@@ -22657,60 +22676,58 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>424</v>
+        <v>842</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>425</v>
+        <v>843</v>
       </c>
       <c r="F63" t="s">
         <v>1751</v>
+      </c>
+      <c r="G63" t="s">
+        <v>844</v>
       </c>
       <c r="H63" t="s">
         <v>2027</v>
       </c>
       <c r="I63" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>2008</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
+        <v>424</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>323</v>
+        <v>425</v>
       </c>
       <c r="F64" t="s">
         <v>1751</v>
       </c>
-      <c r="G64" t="s">
-        <v>324</v>
-      </c>
       <c r="H64" t="s">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="I64" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1969</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1">
@@ -22718,28 +22735,31 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
         <v>1751</v>
       </c>
+      <c r="G65" t="s">
+        <v>324</v>
+      </c>
       <c r="H65" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="I65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>2013</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1">
@@ -22747,46 +22767,48 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="F66" t="s">
         <v>1751</v>
       </c>
       <c r="H66" t="s">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="I66" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J66" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>845</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>846</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>847</v>
+        <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H67" t="s">
         <v>2021</v>
@@ -22798,48 +22820,46 @@
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>845</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>846</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>1348</v>
+        <v>847</v>
       </c>
       <c r="F68" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H68" t="s">
         <v>2021</v>
       </c>
       <c r="I68" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>1844</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>450</v>
+        <v>326</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>1584</v>
+        <v>1348</v>
       </c>
       <c r="F69" t="s">
         <v>1751</v>
@@ -22848,31 +22868,33 @@
         <v>2021</v>
       </c>
       <c r="I69" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J69" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>1844</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>1651</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>1652</v>
+        <v>450</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>1653</v>
+        <v>1584</v>
       </c>
       <c r="F70" t="s">
         <v>1751</v>
       </c>
       <c r="H70" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="I70" t="s">
         <v>1754</v>
@@ -22884,16 +22906,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>1651</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
+        <v>1652</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>1653</v>
       </c>
       <c r="F71" t="s">
         <v>1751</v>
@@ -22904,40 +22926,35 @@
       <c r="I71" t="s">
         <v>1754</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>601</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>602</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>603</v>
+        <v>175</v>
       </c>
       <c r="F72" t="s">
         <v>1751</v>
       </c>
-      <c r="G72" t="s">
-        <v>604</v>
-      </c>
       <c r="H72" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="I72" t="s">
         <v>1754</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1965</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1">
@@ -22945,113 +22962,115 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="C73" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>654</v>
+        <v>603</v>
       </c>
       <c r="F73" t="s">
         <v>1751</v>
       </c>
       <c r="G73" t="s">
-        <v>655</v>
+        <v>604</v>
       </c>
       <c r="H73" t="s">
         <v>2029</v>
       </c>
       <c r="I73" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1905</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>976</v>
+        <v>653</v>
       </c>
       <c r="C74" t="s">
-        <v>977</v>
+        <v>528</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>978</v>
+        <v>654</v>
       </c>
       <c r="F74" t="s">
         <v>1751</v>
       </c>
+      <c r="G74" t="s">
+        <v>655</v>
+      </c>
       <c r="H74" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="I74" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1943</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>1453</v>
+        <v>976</v>
       </c>
       <c r="C75" t="s">
-        <v>1454</v>
+        <v>977</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>1455</v>
+        <v>978</v>
       </c>
       <c r="F75" t="s">
         <v>1751</v>
       </c>
-      <c r="G75" t="s">
-        <v>1456</v>
-      </c>
       <c r="H75" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I75" t="s">
         <v>1754</v>
       </c>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>1943</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1">
       <c r="A76" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>1585</v>
+        <v>1453</v>
       </c>
       <c r="C76" t="s">
-        <v>1586</v>
+        <v>1454</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>1587</v>
+        <v>1455</v>
       </c>
       <c r="F76" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G76" t="s">
-        <v>844</v>
+        <v>1456</v>
       </c>
       <c r="H76" t="s">
         <v>2019</v>
@@ -23063,23 +23082,26 @@
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
       <c r="A77" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
-        <v>1719</v>
+        <v>1585</v>
       </c>
       <c r="C77" t="s">
-        <v>1720</v>
+        <v>1586</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>1721</v>
+        <v>1587</v>
       </c>
       <c r="F77" t="s">
         <v>1750</v>
       </c>
+      <c r="G77" t="s">
+        <v>844</v>
+      </c>
       <c r="H77" t="s">
         <v>2019</v>
       </c>
@@ -23090,110 +23112,107 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>1719</v>
       </c>
       <c r="C78" t="s">
-        <v>758</v>
+        <v>1720</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>759</v>
+        <v>1721</v>
       </c>
       <c r="F78" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H78" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="I78" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>1823</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="C79" t="s">
-        <v>511</v>
+        <v>758</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>1431</v>
+        <v>759</v>
       </c>
       <c r="F79" t="s">
         <v>1751</v>
       </c>
       <c r="H79" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="I79" t="s">
         <v>1755</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>983</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>984</v>
+        <v>511</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>985</v>
+        <v>1431</v>
       </c>
       <c r="F80" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H80" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I80" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J80" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>1826</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>983</v>
       </c>
       <c r="C81" t="s">
-        <v>409</v>
+        <v>984</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>410</v>
+        <v>985</v>
       </c>
       <c r="F81" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G81" t="s">
-        <v>130</v>
+        <v>1750</v>
       </c>
       <c r="H81" t="s">
         <v>2020</v>
@@ -23205,22 +23224,25 @@
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>1239</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>1533</v>
+        <v>409</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>1534</v>
+        <v>410</v>
       </c>
       <c r="F82" t="s">
-        <v>1750</v>
+        <v>1751</v>
+      </c>
+      <c r="G82" t="s">
+        <v>130</v>
       </c>
       <c r="H82" t="s">
         <v>2020</v>
@@ -23232,25 +23254,25 @@
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>1239</v>
       </c>
       <c r="C83" t="s">
-        <v>227</v>
+        <v>1533</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>228</v>
+        <v>1534</v>
       </c>
       <c r="F83" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H83" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="I83" t="s">
         <v>1754</v>
@@ -23259,25 +23281,25 @@
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>848</v>
+        <v>226</v>
       </c>
       <c r="C84" t="s">
-        <v>849</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>850</v>
+        <v>228</v>
       </c>
       <c r="F84" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H84" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="I84" t="s">
         <v>1754</v>
@@ -23286,60 +23308,58 @@
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>848</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>849</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>850</v>
       </c>
       <c r="F85" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H85" t="s">
-        <v>2029</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>1938</v>
-      </c>
+        <v>2028</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>967</v>
+        <v>268</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>968</v>
+        <v>269</v>
       </c>
       <c r="F86" t="s">
         <v>1751</v>
       </c>
       <c r="H86" t="s">
-        <v>2019</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1755</v>
+        <v>2029</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>1937</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1919</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1">
@@ -23347,49 +23367,51 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>1126</v>
+        <v>967</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>1127</v>
+        <v>968</v>
       </c>
       <c r="F87" t="s">
         <v>1751</v>
       </c>
-      <c r="G87" t="s">
-        <v>743</v>
-      </c>
       <c r="H87" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I87" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J87" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>1919</v>
+      </c>
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>527</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>1126</v>
       </c>
       <c r="D88" t="s">
-        <v>563</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>564</v>
+        <v>1127</v>
       </c>
       <c r="F88" t="s">
-        <v>1750</v>
+        <v>1751</v>
+      </c>
+      <c r="G88" t="s">
+        <v>743</v>
       </c>
       <c r="H88" t="s">
         <v>2022</v>
@@ -23401,28 +23423,25 @@
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1">
       <c r="A89" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>948</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>949</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>563</v>
       </c>
       <c r="E89" t="s">
-        <v>950</v>
+        <v>564</v>
       </c>
       <c r="F89" t="s">
         <v>1750</v>
       </c>
-      <c r="G89" t="s">
-        <v>951</v>
-      </c>
       <c r="H89" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="I89" t="s">
         <v>1754</v>
@@ -23434,84 +23453,84 @@
         <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>1128</v>
+        <v>948</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>949</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>1129</v>
+        <v>950</v>
       </c>
       <c r="F90" t="s">
         <v>1750</v>
       </c>
       <c r="G90" t="s">
-        <v>1130</v>
+        <v>951</v>
       </c>
       <c r="H90" t="s">
         <v>2029</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>2035</v>
-      </c>
+      <c r="I90" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="A91" t="s">
         <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>1508</v>
+        <v>1128</v>
       </c>
       <c r="C91" t="s">
-        <v>1509</v>
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>1510</v>
+        <v>1129</v>
       </c>
       <c r="F91" t="s">
         <v>1750</v>
       </c>
       <c r="G91" t="s">
-        <v>1511</v>
+        <v>1130</v>
       </c>
       <c r="H91" t="s">
         <v>2029</v>
       </c>
-      <c r="I91" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>2035</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1">
       <c r="A92" t="s">
         <v>240</v>
       </c>
       <c r="B92" t="s">
-        <v>1476</v>
+        <v>1508</v>
       </c>
       <c r="C92" t="s">
-        <v>1477</v>
+        <v>1509</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>1478</v>
+        <v>1510</v>
       </c>
       <c r="F92" t="s">
         <v>1750</v>
       </c>
       <c r="G92" t="s">
-        <v>422</v>
+        <v>1511</v>
       </c>
       <c r="H92" t="s">
         <v>2029</v>
@@ -23523,25 +23542,28 @@
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>1476</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>1477</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>1478</v>
       </c>
       <c r="F93" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G93" t="s">
+        <v>422</v>
       </c>
       <c r="H93" t="s">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="I93" t="s">
         <v>1754</v>
@@ -23550,28 +23572,25 @@
     </row>
     <row r="94" spans="1:10" ht="15" customHeight="1">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>693</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>694</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
         <v>1751</v>
       </c>
-      <c r="G94" t="s">
-        <v>695</v>
-      </c>
       <c r="H94" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="I94" t="s">
         <v>1754</v>
@@ -23580,28 +23599,28 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>1381</v>
+        <v>158</v>
       </c>
       <c r="C95" t="s">
-        <v>1382</v>
+        <v>693</v>
       </c>
       <c r="D95" t="s">
         <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>1383</v>
+        <v>694</v>
       </c>
       <c r="F95" t="s">
         <v>1751</v>
       </c>
       <c r="G95" t="s">
-        <v>1384</v>
+        <v>695</v>
       </c>
       <c r="H95" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="I95" t="s">
         <v>1754</v>
@@ -23610,187 +23629,188 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>912</v>
+        <v>1381</v>
       </c>
       <c r="C96" t="s">
-        <v>913</v>
+        <v>1382</v>
       </c>
       <c r="D96" t="s">
         <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>914</v>
+        <v>1383</v>
       </c>
       <c r="F96" t="s">
         <v>1751</v>
       </c>
       <c r="G96" t="s">
-        <v>915</v>
+        <v>1384</v>
       </c>
       <c r="H96" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I96" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>1957</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" ht="15" customHeight="1">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>721</v>
+        <v>912</v>
       </c>
       <c r="C97" t="s">
-        <v>722</v>
+        <v>913</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>723</v>
+        <v>914</v>
       </c>
       <c r="F97" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G97" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="H97" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="I97" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J97" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1">
       <c r="A98" t="s">
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>721</v>
       </c>
       <c r="C98" t="s">
-        <v>543</v>
+        <v>722</v>
       </c>
       <c r="D98" t="s">
-        <v>544</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>545</v>
+        <v>723</v>
       </c>
       <c r="F98" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="s">
-        <v>546</v>
+        <v>724</v>
       </c>
       <c r="H98" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="I98" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>1959</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>1299</v>
+        <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>544</v>
       </c>
       <c r="E99" t="s">
-        <v>1346</v>
+        <v>545</v>
       </c>
       <c r="F99" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G99" t="s">
-        <v>1347</v>
+        <v>546</v>
       </c>
       <c r="H99" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I99" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J99" s="1"/>
+        <v>1937</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>1959</v>
+      </c>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>1299</v>
       </c>
       <c r="C100" t="s">
-        <v>1030</v>
+        <v>440</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>1031</v>
+        <v>1346</v>
       </c>
       <c r="F100" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G100" t="s">
-        <v>1032</v>
+        <v>1347</v>
       </c>
       <c r="H100" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="I100" t="s">
         <v>1754</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>1973</v>
-      </c>
+      <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1">
       <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>651</v>
+        <v>1030</v>
       </c>
       <c r="D101" t="s">
         <v>28</v>
       </c>
       <c r="E101" t="s">
-        <v>652</v>
+        <v>1031</v>
       </c>
       <c r="F101" t="s">
         <v>1751</v>
       </c>
+      <c r="G101" t="s">
+        <v>1032</v>
+      </c>
       <c r="H101" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="I101" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1874</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -23798,16 +23818,16 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>264</v>
+        <v>651</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>265</v>
+        <v>652</v>
       </c>
       <c r="F102" t="s">
         <v>1751</v>
@@ -23816,31 +23836,33 @@
         <v>2021</v>
       </c>
       <c r="I102" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J102" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>1874</v>
+      </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>1360</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
-        <v>1640</v>
+        <v>264</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>1641</v>
+        <v>265</v>
       </c>
       <c r="F103" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H103" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="I103" t="s">
         <v>1754</v>
@@ -23849,28 +23871,25 @@
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>1360</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>1640</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>1641</v>
       </c>
       <c r="F104" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G104" t="s">
-        <v>448</v>
+        <v>1750</v>
       </c>
       <c r="H104" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="I104" t="s">
         <v>1754</v>
@@ -23879,25 +23898,28 @@
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>446</v>
       </c>
       <c r="C105" t="s">
-        <v>1668</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>1685</v>
+        <v>447</v>
       </c>
       <c r="F105" t="s">
         <v>1751</v>
       </c>
+      <c r="G105" t="s">
+        <v>448</v>
+      </c>
       <c r="H105" t="s">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="I105" t="s">
         <v>1754</v>
@@ -23906,28 +23928,25 @@
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>1018</v>
+        <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>1174</v>
+        <v>1668</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E106" t="s">
-        <v>1175</v>
+        <v>1685</v>
       </c>
       <c r="F106" t="s">
         <v>1751</v>
       </c>
-      <c r="G106" t="s">
-        <v>1176</v>
-      </c>
       <c r="H106" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="I106" t="s">
         <v>1754</v>
@@ -23936,28 +23955,28 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>1018</v>
       </c>
       <c r="C107" t="s">
-        <v>429</v>
+        <v>1174</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>430</v>
+        <v>1175</v>
       </c>
       <c r="F107" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G107" t="s">
-        <v>431</v>
+        <v>1176</v>
       </c>
       <c r="H107" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I107" t="s">
         <v>1754</v>
@@ -23966,173 +23985,176 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="C108" t="s">
-        <v>1284</v>
+        <v>429</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>1285</v>
+        <v>430</v>
       </c>
       <c r="F108" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="s">
-        <v>1286</v>
+        <v>431</v>
       </c>
       <c r="H108" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
       <c r="I108" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>1837</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>589</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>882</v>
+        <v>1284</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>883</v>
+        <v>1285</v>
       </c>
       <c r="F109" t="s">
         <v>1751</v>
       </c>
       <c r="G109" t="s">
-        <v>498</v>
+        <v>1286</v>
       </c>
       <c r="H109" t="s">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="I109" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J109" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>1837</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>1512</v>
+        <v>589</v>
       </c>
       <c r="C110" t="s">
-        <v>1616</v>
+        <v>882</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>1617</v>
+        <v>883</v>
       </c>
       <c r="F110" t="s">
-        <v>1750</v>
+        <v>1751</v>
+      </c>
+      <c r="G110" t="s">
+        <v>498</v>
       </c>
       <c r="H110" t="s">
-        <v>2025</v>
-      </c>
-      <c r="I110" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="s">
         <v>1754</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>1512</v>
       </c>
       <c r="C111" t="s">
-        <v>483</v>
+        <v>1616</v>
       </c>
       <c r="D111" t="s">
         <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>484</v>
+        <v>1617</v>
       </c>
       <c r="F111" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G111" t="s">
-        <v>485</v>
+        <v>1750</v>
       </c>
       <c r="H111" t="s">
-        <v>2022</v>
-      </c>
-      <c r="I111" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>1819</v>
-      </c>
+        <v>2025</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>1360</v>
+        <v>332</v>
       </c>
       <c r="C112" t="s">
-        <v>1515</v>
+        <v>483</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>1516</v>
+        <v>484</v>
       </c>
       <c r="F112" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G112" t="s">
-        <v>1517</v>
+        <v>485</v>
       </c>
       <c r="H112" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="I112" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J112" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>1819</v>
+      </c>
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B113" t="s">
-        <v>1018</v>
+        <v>1360</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>1515</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>1087</v>
+        <v>1516</v>
       </c>
       <c r="F113" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1517</v>
       </c>
       <c r="H113" t="s">
         <v>2028</v>
@@ -24147,16 +24169,16 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>1018</v>
       </c>
       <c r="C114" t="s">
-        <v>1108</v>
+        <v>110</v>
       </c>
       <c r="D114" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="F114" t="s">
         <v>1751</v>
@@ -24174,22 +24196,19 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>471</v>
+        <v>169</v>
       </c>
       <c r="C115" t="s">
-        <v>517</v>
+        <v>1108</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E115" t="s">
-        <v>518</v>
+        <v>1109</v>
       </c>
       <c r="F115" t="s">
         <v>1751</v>
-      </c>
-      <c r="G115" t="s">
-        <v>519</v>
       </c>
       <c r="H115" t="s">
         <v>2028</v>
@@ -24204,78 +24223,81 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
       <c r="C116" t="s">
-        <v>1157</v>
+        <v>517</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>1158</v>
+        <v>518</v>
       </c>
       <c r="F116" t="s">
         <v>1751</v>
       </c>
+      <c r="G116" t="s">
+        <v>519</v>
+      </c>
       <c r="H116" t="s">
-        <v>2021</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>1986</v>
-      </c>
+        <v>2028</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" t="s">
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>388</v>
+        <v>84</v>
       </c>
       <c r="C117" t="s">
-        <v>1388</v>
+        <v>1157</v>
       </c>
       <c r="D117" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E117" t="s">
-        <v>1389</v>
+        <v>1158</v>
       </c>
       <c r="F117" t="s">
         <v>1751</v>
       </c>
-      <c r="G117" t="s">
-        <v>1390</v>
-      </c>
       <c r="H117" t="s">
-        <v>2028</v>
-      </c>
-      <c r="I117" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J117" s="1"/>
+        <v>2021</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>527</v>
+        <v>388</v>
       </c>
       <c r="C118" t="s">
-        <v>1066</v>
+        <v>1388</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E118" t="s">
-        <v>1067</v>
+        <v>1389</v>
       </c>
       <c r="F118" t="s">
         <v>1751</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1390</v>
       </c>
       <c r="H118" t="s">
         <v>2028</v>
@@ -24287,28 +24309,25 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>527</v>
       </c>
       <c r="C119" t="s">
-        <v>466</v>
+        <v>1066</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>467</v>
+        <v>1067</v>
       </c>
       <c r="F119" t="s">
         <v>1751</v>
       </c>
-      <c r="G119" t="s">
-        <v>468</v>
-      </c>
       <c r="H119" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I119" t="s">
         <v>1754</v>
@@ -24317,90 +24336,90 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>1260</v>
+        <v>114</v>
       </c>
       <c r="C120" t="s">
-        <v>1261</v>
+        <v>466</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>1262</v>
+        <v>467</v>
       </c>
       <c r="F120" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G120" t="s">
-        <v>1263</v>
+        <v>468</v>
       </c>
       <c r="H120" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="I120" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>1845</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B121" t="s">
-        <v>1696</v>
+        <v>1260</v>
       </c>
       <c r="C121" t="s">
-        <v>1697</v>
+        <v>1261</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>1698</v>
+        <v>1262</v>
       </c>
       <c r="F121" t="s">
         <v>1750</v>
       </c>
       <c r="G121" t="s">
-        <v>1699</v>
+        <v>1263</v>
       </c>
       <c r="H121" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="I121" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J121" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>1845</v>
+      </c>
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>1159</v>
+        <v>1696</v>
       </c>
       <c r="C122" t="s">
-        <v>1160</v>
+        <v>1697</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E122" t="s">
-        <v>1161</v>
+        <v>1698</v>
       </c>
       <c r="F122" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G122" t="s">
-        <v>834</v>
+        <v>1699</v>
       </c>
       <c r="H122" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="I122" t="s">
         <v>1754</v>
@@ -24409,25 +24428,28 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>589</v>
+        <v>1159</v>
       </c>
       <c r="C123" t="s">
-        <v>1357</v>
+        <v>1160</v>
       </c>
       <c r="D123" t="s">
         <v>28</v>
       </c>
       <c r="E123" t="s">
-        <v>1358</v>
+        <v>1161</v>
       </c>
       <c r="F123" t="s">
         <v>1751</v>
       </c>
+      <c r="G123" t="s">
+        <v>834</v>
+      </c>
       <c r="H123" t="s">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="I123" t="s">
         <v>1754</v>
@@ -24436,28 +24458,25 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>589</v>
       </c>
       <c r="C124" t="s">
-        <v>110</v>
+        <v>1357</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>668</v>
+        <v>1358</v>
       </c>
       <c r="F124" t="s">
         <v>1751</v>
       </c>
-      <c r="G124" t="s">
-        <v>2003</v>
-      </c>
       <c r="H124" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="I124" t="s">
         <v>1754</v>
@@ -24469,22 +24488,25 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C125" t="s">
-        <v>1212</v>
+        <v>110</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>1213</v>
+        <v>668</v>
       </c>
       <c r="F125" t="s">
         <v>1751</v>
       </c>
+      <c r="G125" t="s">
+        <v>2003</v>
+      </c>
       <c r="H125" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="I125" t="s">
         <v>1754</v>
@@ -24493,116 +24515,113 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>1072</v>
+        <v>58</v>
       </c>
       <c r="C126" t="s">
-        <v>1073</v>
+        <v>1212</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>1074</v>
+        <v>1213</v>
       </c>
       <c r="F126" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1075</v>
+        <v>1751</v>
       </c>
       <c r="H126" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="I126" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>2006</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J126" s="1"/>
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" t="s">
         <v>240</v>
       </c>
       <c r="B127" t="s">
-        <v>890</v>
+        <v>1072</v>
       </c>
       <c r="C127" t="s">
-        <v>89</v>
+        <v>1073</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>1500</v>
+        <v>1074</v>
       </c>
       <c r="F127" t="s">
         <v>1750</v>
       </c>
+      <c r="G127" t="s">
+        <v>1075</v>
+      </c>
       <c r="H127" t="s">
-        <v>2021</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>1754</v>
+        <v>2022</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1937</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>2016</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="B128" t="s">
-        <v>527</v>
+        <v>890</v>
       </c>
       <c r="C128" t="s">
-        <v>528</v>
+        <v>89</v>
       </c>
       <c r="D128" t="s">
         <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>529</v>
+        <v>1500</v>
       </c>
       <c r="F128" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H128" t="s">
-        <v>2024</v>
-      </c>
-      <c r="I128" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J128" s="1"/>
+        <v>2021</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>2016</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>527</v>
       </c>
       <c r="C129" t="s">
-        <v>732</v>
+        <v>528</v>
       </c>
       <c r="D129" t="s">
         <v>28</v>
       </c>
       <c r="E129" t="s">
-        <v>733</v>
+        <v>529</v>
       </c>
       <c r="F129" t="s">
         <v>1751</v>
       </c>
-      <c r="G129" t="s">
-        <v>734</v>
-      </c>
       <c r="H129" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="I129" t="s">
         <v>1754</v>
@@ -24611,25 +24630,28 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>328</v>
       </c>
       <c r="C130" t="s">
-        <v>1474</v>
+        <v>732</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>1475</v>
+        <v>733</v>
       </c>
       <c r="F130" t="s">
         <v>1751</v>
       </c>
+      <c r="G130" t="s">
+        <v>734</v>
+      </c>
       <c r="H130" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
       <c r="I130" t="s">
         <v>1754</v>
@@ -24638,183 +24660,178 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>382</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>383</v>
+        <v>1474</v>
       </c>
       <c r="D131" t="s">
         <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>384</v>
+        <v>1475</v>
       </c>
       <c r="F131" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H131" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="I131" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>1909</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J131" s="1"/>
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>1200</v>
+        <v>382</v>
       </c>
       <c r="C132" t="s">
-        <v>1201</v>
+        <v>383</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>1202</v>
+        <v>384</v>
       </c>
       <c r="F132" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1203</v>
+        <v>1750</v>
       </c>
       <c r="H132" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="I132" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J132" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>1909</v>
+      </c>
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>1200</v>
       </c>
       <c r="C133" t="s">
-        <v>118</v>
+        <v>1201</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>119</v>
+        <v>1202</v>
       </c>
       <c r="F133" t="s">
         <v>1751</v>
       </c>
       <c r="G133" t="s">
-        <v>120</v>
+        <v>1203</v>
       </c>
       <c r="H133" t="s">
-        <v>2022</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>1935</v>
-      </c>
+        <v>2026</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J133" s="1"/>
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" t="s">
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="C134" t="s">
-        <v>392</v>
+        <v>118</v>
       </c>
       <c r="D134" t="s">
         <v>28</v>
       </c>
       <c r="E134" t="s">
-        <v>393</v>
+        <v>119</v>
       </c>
       <c r="F134" t="s">
         <v>1751</v>
       </c>
+      <c r="G134" t="s">
+        <v>120</v>
+      </c>
       <c r="H134" t="s">
-        <v>2020</v>
-      </c>
-      <c r="I134" t="s">
-        <v>1755</v>
+        <v>2022</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>1754</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1836</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>1399</v>
+        <v>391</v>
       </c>
       <c r="C135" t="s">
-        <v>1400</v>
+        <v>392</v>
       </c>
       <c r="D135" t="s">
         <v>28</v>
       </c>
       <c r="E135" t="s">
-        <v>1401</v>
+        <v>393</v>
       </c>
       <c r="F135" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H135" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
       <c r="I135" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1963</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>251</v>
+        <v>1399</v>
       </c>
       <c r="C136" t="s">
-        <v>569</v>
+        <v>1400</v>
       </c>
       <c r="D136" t="s">
         <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>570</v>
+        <v>1401</v>
       </c>
       <c r="F136" t="s">
         <v>1750</v>
       </c>
-      <c r="G136" t="s">
-        <v>571</v>
-      </c>
       <c r="H136" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="I136" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1896</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
@@ -24822,108 +24839,113 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="C137" t="s">
-        <v>294</v>
+        <v>569</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>295</v>
+        <v>570</v>
       </c>
       <c r="F137" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G137" t="s">
-        <v>296</v>
+        <v>571</v>
       </c>
       <c r="H137" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I137" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J137" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>1896</v>
+      </c>
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>534</v>
+        <v>293</v>
       </c>
       <c r="C138" t="s">
-        <v>535</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>536</v>
+        <v>295</v>
       </c>
       <c r="F138" t="s">
         <v>1751</v>
       </c>
+      <c r="G138" t="s">
+        <v>296</v>
+      </c>
       <c r="H138" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="I138" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>1822</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J138" s="1"/>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>534</v>
       </c>
       <c r="C139" t="s">
-        <v>314</v>
+        <v>535</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
       </c>
       <c r="E139" t="s">
-        <v>317</v>
+        <v>536</v>
       </c>
       <c r="F139" t="s">
         <v>1751</v>
       </c>
       <c r="H139" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="I139" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J139" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>1822</v>
+      </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C140" t="s">
-        <v>1493</v>
+        <v>314</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E140" t="s">
-        <v>1494</v>
+        <v>317</v>
       </c>
       <c r="F140" t="s">
         <v>1751</v>
       </c>
       <c r="H140" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I140" t="s">
         <v>1754</v>
@@ -24932,28 +24954,25 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>854</v>
+        <v>40</v>
       </c>
       <c r="C141" t="s">
-        <v>855</v>
+        <v>1493</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
       </c>
       <c r="E141" t="s">
-        <v>856</v>
+        <v>1494</v>
       </c>
       <c r="F141" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G141" t="s">
-        <v>857</v>
+        <v>1751</v>
       </c>
       <c r="H141" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="I141" t="s">
         <v>1754</v>
@@ -24962,28 +24981,31 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>620</v>
+        <v>854</v>
       </c>
       <c r="C142" t="s">
-        <v>621</v>
+        <v>855</v>
       </c>
       <c r="D142" t="s">
-        <v>622</v>
+        <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>623</v>
+        <v>856</v>
       </c>
       <c r="F142" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G142" t="s">
+        <v>857</v>
       </c>
       <c r="H142" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="I142" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J142" s="1"/>
     </row>
@@ -24992,233 +25014,228 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>960</v>
+        <v>620</v>
       </c>
       <c r="C143" t="s">
-        <v>961</v>
+        <v>621</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>622</v>
       </c>
       <c r="E143" t="s">
-        <v>962</v>
+        <v>623</v>
       </c>
       <c r="F143" t="s">
         <v>1751</v>
       </c>
       <c r="H143" t="s">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="I143" t="s">
         <v>1755</v>
       </c>
-      <c r="J143" s="1" t="s">
-        <v>1895</v>
-      </c>
+      <c r="J143" s="1"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>1338</v>
+        <v>960</v>
       </c>
       <c r="C144" t="s">
-        <v>304</v>
+        <v>961</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E144" t="s">
-        <v>1339</v>
+        <v>962</v>
       </c>
       <c r="F144" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G144" t="s">
-        <v>1340</v>
+        <v>1751</v>
       </c>
       <c r="H144" t="s">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="I144" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J144" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>1338</v>
       </c>
       <c r="C145" t="s">
         <v>304</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>631</v>
+        <v>1339</v>
       </c>
       <c r="F145" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1340</v>
       </c>
       <c r="H145" t="s">
         <v>2028</v>
       </c>
       <c r="I145" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>1912</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J145" s="1"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="C146" t="s">
-        <v>1741</v>
+        <v>304</v>
       </c>
       <c r="D146" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E146" t="s">
-        <v>1742</v>
+        <v>631</v>
       </c>
       <c r="F146" t="s">
         <v>1751</v>
       </c>
       <c r="H146" t="s">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="I146" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J146" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>1912</v>
+      </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>1287</v>
+        <v>339</v>
       </c>
       <c r="C147" t="s">
-        <v>1288</v>
+        <v>1741</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E147" t="s">
-        <v>301</v>
+        <v>1742</v>
       </c>
       <c r="F147" t="s">
         <v>1751</v>
       </c>
       <c r="H147" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I147" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>1879</v>
-      </c>
+        <v>1754</v>
+      </c>
+      <c r="J147" s="1"/>
     </row>
     <row r="148" spans="1:10" ht="15" customHeight="1">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>1131</v>
+        <v>1287</v>
       </c>
       <c r="C148" t="s">
-        <v>761</v>
+        <v>1288</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
       </c>
       <c r="E148" t="s">
-        <v>1132</v>
+        <v>301</v>
       </c>
       <c r="F148" t="s">
         <v>1751</v>
       </c>
       <c r="H148" t="s">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="I148" t="s">
         <v>1755</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1867</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15" customHeight="1">
       <c r="A149" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>1131</v>
       </c>
       <c r="C149" t="s">
-        <v>828</v>
+        <v>761</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
       </c>
       <c r="E149" t="s">
-        <v>829</v>
+        <v>1132</v>
       </c>
       <c r="F149" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H149" t="s">
-        <v>2021</v>
-      </c>
-      <c r="I149" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I149" t="s">
         <v>1755</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>1940</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15" customHeight="1">
       <c r="A150" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>828</v>
       </c>
       <c r="D150" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E150" t="s">
-        <v>4</v>
+        <v>829</v>
       </c>
       <c r="F150" t="s">
-        <v>1749</v>
-      </c>
-      <c r="G150" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H150" t="s">
-        <v>2018</v>
-      </c>
-      <c r="I150" t="s">
-        <v>1748</v>
+        <v>2021</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>1755</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1820</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15" customHeight="1">
@@ -39850,7 +39867,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J651"/>
   <sortState ref="A1:K651">
     <sortCondition ref="E1"/>
   </sortState>
